--- a/01-Excel/2/Activities/07-Ins_Formatting/Solved/ConditionalFormatting.xlsx
+++ b/01-Excel/2/Activities/07-Ins_Formatting/Solved/ConditionalFormatting.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/dev/bootcamp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/2/Activities/03-Ins_Formatting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\Desktop\GA Tech\GitHub\GT-ATL-DATA-PT-09-2020-U-C-2\01-Excel\2\Activities\07-Ins_Formatting\Solved\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13120" yWindow="-25980" windowWidth="39820" windowHeight="20560"/>
+    <workbookView xWindow="13125" yWindow="-25980" windowWidth="39825" windowHeight="20565"/>
   </bookViews>
   <sheets>
     <sheet name="Favorite Colors" sheetId="1" r:id="rId1"/>
@@ -17,16 +17,13 @@
   <definedNames>
     <definedName name="Colors">'Favorite Colors'!$A$2:$A$30</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -149,7 +146,91 @@
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -502,19 +583,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.33203125" style="3" customWidth="1"/>
-    <col min="3" max="8" width="14.33203125" customWidth="1"/>
+    <col min="1" max="2" width="14.28515625" style="3" customWidth="1"/>
+    <col min="3" max="8" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -537,7 +616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -566,12 +645,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -593,8 +672,11 @@
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -622,160 +704,257 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"Orange"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Blue"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Purple"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:H2">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <cfvo type="num" val="10"/>
+        <color rgb="FFC00000"/>
+        <color theme="0"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:H8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF0070C0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="10"/>
-        <color rgb="FFC00000"/>
-        <color theme="9"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF0070C0"/>
+        <color rgb="FFFFC000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
